--- a/SourceDataTables/FigS17.xlsx
+++ b/SourceDataTables/FigS17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="19">
   <si>
     <t>S17_xdata</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -100,14 +100,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,61 +162,61 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
     </row>

--- a/SourceDataTables/FigS17.xlsx
+++ b/SourceDataTables/FigS17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>S17_xdata</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -110,11 +110,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -128,6 +130,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,61 +166,61 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
     </row>

--- a/SourceDataTables/FigS17.xlsx
+++ b/SourceDataTables/FigS17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>S17_xdata</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,38 +100,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,67 +142,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.51923397831767149</v>
+        <v>-0.51741215225134107</v>
       </c>
       <c r="B2">
         <v>-0.71911062732640074</v>
@@ -285,7 +261,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.4343927382983252</v>
+        <v>-0.43322782280930666</v>
       </c>
       <c r="B3">
         <v>-1.7873532731722657</v>
@@ -344,7 +320,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.33749799963894583</v>
+        <v>-0.33482232322569</v>
       </c>
       <c r="B4">
         <v>-0.80530196550777977</v>
@@ -403,7 +379,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.19053470672776054</v>
+        <v>-0.1870873045452561</v>
       </c>
       <c r="B5">
         <v>-0.53869539438647795</v>
@@ -462,7 +438,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1567895120761516</v>
+        <v>0.15882961033332618</v>
       </c>
       <c r="B6">
         <v>-1.6014138097856558</v>
@@ -521,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.32807634282217829</v>
+        <v>-0.32727687992811583</v>
       </c>
       <c r="B7">
         <v>-2.1267226083260593</v>
@@ -580,7 +556,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.33894922467504185</v>
+        <v>-0.33758682996514761</v>
       </c>
       <c r="B8">
         <v>-1.438380967755158</v>
@@ -639,7 +615,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.21335079971042539</v>
+        <v>-0.21090556932020757</v>
       </c>
       <c r="B9">
         <v>0.17880692100397028</v>
@@ -698,7 +674,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.52395566536571658</v>
+        <v>-0.52160632694213127</v>
       </c>
       <c r="B10">
         <v>-0.20759325882639079</v>
@@ -757,7 +733,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.183159097670367</v>
+        <v>-0.18013639242029381</v>
       </c>
       <c r="B11">
         <v>-0.88237309505131623</v>
@@ -816,7 +792,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.76125886159148481</v>
+        <v>0.76229434638050242</v>
       </c>
       <c r="B12">
         <v>0.11728708109764668</v>
@@ -875,7 +851,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.16967692605152079</v>
+        <v>-0.16689622181500718</v>
       </c>
       <c r="B13">
         <v>0.70721117911307374</v>
@@ -934,7 +910,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.354021116542106</v>
+        <v>-0.35299128667788221</v>
       </c>
       <c r="B14">
         <v>-1.6768579440239149</v>
@@ -993,7 +969,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.30068323003147396</v>
+        <v>-0.29981974706597053</v>
       </c>
       <c r="B15">
         <v>-2.1626588448234227</v>
@@ -1052,7 +1028,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.33216843740717394</v>
+        <v>-0.3306938350861191</v>
       </c>
       <c r="B16">
         <v>-1.3267670570400483</v>
@@ -1111,7 +1087,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>-0.24383001132898535</v>
+        <v>-0.24084990143829615</v>
       </c>
       <c r="B17">
         <v>-1.0889819255633628</v>
@@ -1170,7 +1146,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.23504181186094275</v>
+        <v>-0.23308613138519099</v>
       </c>
       <c r="B18">
         <v>1.4587702564895153</v>
@@ -1229,7 +1205,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.23801055420677616</v>
+        <v>-0.23608312966398404</v>
       </c>
       <c r="B19">
         <v>1.7873610701717315</v>
@@ -1288,7 +1264,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.16558543550441265</v>
+        <v>-0.16249650258377471</v>
       </c>
       <c r="B20">
         <v>-0.24313361476453371</v>
@@ -1347,7 +1323,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>1.2172787663543352</v>
+        <v>1.2171074646687696</v>
       </c>
       <c r="B21">
         <v>0.82744334702495881</v>
@@ -1406,7 +1382,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.16429981441423175</v>
+        <v>-0.16190729293774436</v>
       </c>
       <c r="B22">
         <v>1.1821196685960891</v>
@@ -1465,7 +1441,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.31171116179169295</v>
+        <v>-0.31056054524820842</v>
       </c>
       <c r="B23">
         <v>-1.9674298049025394</v>
@@ -1524,7 +1500,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.26059005855310491</v>
+        <v>-0.25923676543895369</v>
       </c>
       <c r="B24">
         <v>-1.5574050814941012</v>
@@ -1583,7 +1559,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.44039663286719394</v>
+        <v>-0.43908910275958107</v>
       </c>
       <c r="B25">
         <v>-1.8330918085966872</v>
@@ -1642,7 +1618,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.19408643653896349</v>
+        <v>-0.19198766364500292</v>
       </c>
       <c r="B26">
         <v>1.1730912784009444</v>
@@ -1701,7 +1677,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.26029676983960276</v>
+        <v>-0.25847950684279769</v>
       </c>
       <c r="B27">
         <v>-1.2114306526348508</v>
@@ -1760,7 +1736,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.24540788374019029</v>
+        <v>-0.24305440746518511</v>
       </c>
       <c r="B28">
         <v>-1.0313747989425779</v>
@@ -1819,7 +1795,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.081009105853826285</v>
+        <v>-0.077683538183065962</v>
       </c>
       <c r="B29">
         <v>-0.73649845199403086</v>
@@ -1878,7 +1854,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.12831943311958055</v>
+        <v>-0.12635493342959309</v>
       </c>
       <c r="B30">
         <v>2.3898808740067956</v>
@@ -1937,7 +1913,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.11751375432131889</v>
+        <v>-0.11455622950157932</v>
       </c>
       <c r="B31">
         <v>0.078075808659072488</v>
@@ -1996,7 +1972,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.17116185106602458</v>
+        <v>-0.16928467962775326</v>
       </c>
       <c r="B32">
         <v>2.535346026188575</v>
@@ -2055,7 +2031,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.13369606003994461</v>
+        <v>-0.13130543793416352</v>
       </c>
       <c r="B33">
         <v>1.1105420037751734</v>
@@ -2114,7 +2090,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.10815171050738581</v>
+        <v>-0.10607487186267012</v>
       </c>
       <c r="B34">
         <v>2.1057555741939011</v>
@@ -2173,7 +2149,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.18931451765445834</v>
+        <v>-0.18636723085806881</v>
       </c>
       <c r="B35">
         <v>0.27193073350170899</v>
@@ -2232,7 +2208,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.25435620205346671</v>
+        <v>-0.25290121514955699</v>
       </c>
       <c r="B36">
         <v>-1.8048470552215712</v>
@@ -2291,7 +2267,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.13390505772661254</v>
+        <v>-0.13188311397078506</v>
       </c>
       <c r="B37">
         <v>-1.2311366262073855</v>
@@ -2350,7 +2326,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.021829354362239144</v>
+        <v>0.025003730244721564</v>
       </c>
       <c r="B38">
         <v>-0.33596855016701199</v>
@@ -2409,7 +2385,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>-1.3336420145928334</v>
+        <v>-1.3344273689280062</v>
       </c>
       <c r="B39">
         <v>-1.750309015269828</v>
@@ -2468,7 +2444,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.17039000456928263</v>
+        <v>-0.16819333137618508</v>
       </c>
       <c r="B40">
         <v>2.0600247052087064</v>
@@ -2527,7 +2503,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.92047668985662967</v>
+        <v>-0.92112372179757307</v>
       </c>
       <c r="B41">
         <v>-1.703954078100778</v>
@@ -2586,7 +2562,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.072950100269774512</v>
+        <v>-0.070735862149093762</v>
       </c>
       <c r="B42">
         <v>2.4148157454804329</v>
@@ -2645,7 +2621,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.18193777289619517</v>
+        <v>-0.17922909338735865</v>
       </c>
       <c r="B43">
         <v>-0.57241945866560517</v>
@@ -2704,7 +2680,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.22928778954963275</v>
+        <v>-0.22651293970307795</v>
       </c>
       <c r="B44">
         <v>-0.7444643178860918</v>
@@ -2763,7 +2739,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.14253103610841339</v>
+        <v>-0.14035894632122387</v>
       </c>
       <c r="B45">
         <v>2.6402048076668829</v>
@@ -2822,7 +2798,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.21296293632015983</v>
+        <v>-0.21116447577890443</v>
       </c>
       <c r="B46">
         <v>-1.1753894690139297</v>
@@ -2881,7 +2857,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.48208671863726621</v>
+        <v>-0.48087157485372767</v>
       </c>
       <c r="B47">
         <v>-1.4641888558498921</v>
@@ -2940,7 +2916,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.14048258771791725</v>
+        <v>-0.13788831764242279</v>
       </c>
       <c r="B48">
         <v>0.46745133594502714</v>
@@ -2999,7 +2975,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>-1.1350135369107495</v>
+        <v>-1.1349829493129846</v>
       </c>
       <c r="B49">
         <v>-1.1857835502968621</v>
@@ -3058,7 +3034,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.10983794458123421</v>
+        <v>-0.10751350811167573</v>
       </c>
       <c r="B50">
         <v>2.5659437761841826</v>
@@ -3117,7 +3093,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.28704229507592194</v>
+        <v>-0.283615584752963</v>
       </c>
       <c r="B51">
         <v>0.57417349483489444</v>
@@ -3176,7 +3152,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>-1.0722820240265547</v>
+        <v>-1.0727498821954213</v>
       </c>
       <c r="B52">
         <v>-1.9544638277779163</v>
@@ -3235,7 +3211,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>-0.023235394431385285</v>
+        <v>-0.020615923774629459</v>
       </c>
       <c r="B53">
         <v>-0.60610724116387737</v>
@@ -3294,7 +3270,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.10260539938796694</v>
+        <v>-0.10034914694229125</v>
       </c>
       <c r="B54">
         <v>2.0727438035708587</v>
@@ -3353,7 +3329,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.028092442161238212</v>
+        <v>0.030857968171496355</v>
       </c>
       <c r="B55">
         <v>-0.44392764214568831</v>
@@ -3412,7 +3388,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.1224666880738213</v>
+        <v>-0.12004292200787357</v>
       </c>
       <c r="B56">
         <v>1.3231143299610384</v>
@@ -3471,7 +3447,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>-1.1231023486803566</v>
+        <v>-1.1250029718868322</v>
       </c>
       <c r="B57">
         <v>-1.1649981640466225</v>
@@ -3530,7 +3506,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.075959342603457228</v>
+        <v>-0.073324218230583146</v>
       </c>
       <c r="B58">
         <v>-0.29428448257119533</v>
@@ -3589,7 +3565,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.12921840094318868</v>
+        <v>-0.12677606212907444</v>
       </c>
       <c r="B59">
         <v>2.1014229897941861</v>
@@ -3648,7 +3624,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.036953105682575024</v>
+        <v>-0.034190402016625772</v>
       </c>
       <c r="B60">
         <v>0.018424296086418268</v>
@@ -3707,7 +3683,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>-0.28112433360256289</v>
+        <v>-0.27775207059267454</v>
       </c>
       <c r="B61">
         <v>1.3842774926005184</v>
@@ -3766,7 +3742,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.052022801287366471</v>
+        <v>-0.049657692883645334</v>
       </c>
       <c r="B62">
         <v>2.3400047670231157</v>
@@ -3825,7 +3801,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>-1.1240710848968585</v>
+        <v>-1.1267517502243438</v>
       </c>
       <c r="B63">
         <v>-1.5536049248472963</v>
@@ -3884,7 +3860,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>-1.2669518244572542</v>
+        <v>-1.2694091889971686</v>
       </c>
       <c r="B64">
         <v>-0.77016146629384508</v>
@@ -3943,7 +3919,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.079683446383656112</v>
+        <v>-0.077742437074960771</v>
       </c>
       <c r="B65">
         <v>-0.8519393740845087</v>
@@ -4002,7 +3978,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>-0.16019349828731438</v>
+        <v>-0.15722536186683772</v>
       </c>
       <c r="B66">
         <v>-0.28643408860185565</v>
@@ -4061,7 +4037,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>-1.4840823973621347</v>
+        <v>-1.4877723600118387</v>
       </c>
       <c r="B67">
         <v>-1.307705448269844</v>
@@ -4120,7 +4096,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.034398632575519075</v>
+        <v>-0.031951947961680084</v>
       </c>
       <c r="B68">
         <v>2.3966890412181461</v>
@@ -4179,7 +4155,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.81805448700293248</v>
+        <v>-0.81895278183095821</v>
       </c>
       <c r="B69">
         <v>-1.893905757596253</v>
@@ -4238,7 +4214,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.10347556393971723</v>
+        <v>-0.10064409417665617</v>
       </c>
       <c r="B70">
         <v>2.0307084224624514</v>
@@ -4297,7 +4273,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.049631732547361113</v>
+        <v>-0.046845550198794668</v>
       </c>
       <c r="B71">
         <v>-0.2990432430748699</v>
@@ -4356,7 +4332,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>-1.1374353524956289</v>
+        <v>-1.1389139132450716</v>
       </c>
       <c r="B72">
         <v>-1.2180393449686191</v>
@@ -4415,7 +4391,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.10734154456748755</v>
+        <v>-0.10508825809946459</v>
       </c>
       <c r="B73">
         <v>0.69366335568742621</v>
@@ -4474,7 +4450,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>-1.2826893173400664</v>
+        <v>-1.2853484020193364</v>
       </c>
       <c r="B74">
         <v>-1.0373108049432154</v>
@@ -4533,7 +4509,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.0036201129288240684</v>
+        <v>0.0067758672868201662</v>
       </c>
       <c r="B75">
         <v>-0.019750602135976694</v>
@@ -4592,7 +4568,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.099227208488157012</v>
+        <v>-0.096682680498452606</v>
       </c>
       <c r="B76">
         <v>1.3010218024253846</v>
@@ -4651,7 +4627,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.086392265828673112</v>
+        <v>0.089491730055133292</v>
       </c>
       <c r="B77">
         <v>0.30348683277156335</v>
@@ -4710,7 +4686,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>-0.3445286535739745</v>
+        <v>-0.34102806498268107</v>
       </c>
       <c r="B78">
         <v>0.45844328068375018</v>
@@ -4769,7 +4745,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.025621848121826666</v>
+        <v>0.027929627920318469</v>
       </c>
       <c r="B79">
         <v>0.13155386223119811</v>
@@ -4828,7 +4804,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>-0.29592033649309329</v>
+        <v>-0.2924426061126128</v>
       </c>
       <c r="B80">
         <v>1.109099178981781</v>
@@ -4887,7 +4863,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>-0.09024387063244918</v>
+        <v>-0.087693362156446353</v>
       </c>
       <c r="B81">
         <v>1.7589405886512302</v>
@@ -4946,7 +4922,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.057124169972565475</v>
+        <v>-0.054531164271793629</v>
       </c>
       <c r="B82">
         <v>2.0272793603174897</v>
@@ -5005,7 +4981,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>-1.0551323880544918</v>
+        <v>-1.0572935545494766</v>
       </c>
       <c r="B83">
         <v>-0.52698651238693139</v>
@@ -5064,7 +5040,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>-1.2395399324597816</v>
+        <v>-1.2421304336097485</v>
       </c>
       <c r="B84">
         <v>-1.7406710505937084</v>
@@ -5123,7 +5099,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>-1.1150379887237813</v>
+        <v>-1.1177944956694579</v>
       </c>
       <c r="B85">
         <v>-1.2244026016125449</v>
@@ -5182,7 +5158,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.69817106495190795</v>
+        <v>-0.70226280303992183</v>
       </c>
       <c r="B86">
         <v>-0.88683999483811793</v>
@@ -5241,7 +5217,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>-1.2155832093430785</v>
+        <v>-1.2180576061574591</v>
       </c>
       <c r="B87">
         <v>-0.4820671725545802</v>
@@ -5300,7 +5276,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>-0.10228642690146061</v>
+        <v>-0.099595336574267487</v>
       </c>
       <c r="B88">
         <v>0.49281429720576853</v>
@@ -5359,7 +5335,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.006411219768962269</v>
+        <v>0.0096334721533035458</v>
       </c>
       <c r="B89">
         <v>-0.07170790833974354</v>
@@ -5418,7 +5394,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.062074522127544871</v>
+        <v>-0.0592891626014991</v>
       </c>
       <c r="B90">
         <v>0.081799779227669053</v>
@@ -5477,7 +5453,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>-1.2870577680448068</v>
+        <v>-1.2902209303377026</v>
       </c>
       <c r="B91">
         <v>-0.95572395776880203</v>
@@ -5536,7 +5512,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>-0.014270859377560646</v>
+        <v>-0.011866271632146409</v>
       </c>
       <c r="B92">
         <v>0.37108884013811999</v>
@@ -5595,7 +5571,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>-0.072929977646178076</v>
+        <v>-0.070234598614533392</v>
       </c>
       <c r="B93">
         <v>1.7502494173336633</v>
@@ -5654,7 +5630,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>-0.34722481837412433</v>
+        <v>-0.34390722097123422</v>
       </c>
       <c r="B94">
         <v>0.33061936943084314</v>
@@ -5713,7 +5689,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.29419019010076258</v>
+        <v>0.29708964382305159</v>
       </c>
       <c r="B95">
         <v>0.58090662580115238</v>
@@ -5772,7 +5748,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.22110481709655302</v>
+        <v>-0.21780422191624077</v>
       </c>
       <c r="B96">
         <v>1.3383354067633577</v>
@@ -5831,7 +5807,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.4040125231326415</v>
+        <v>1.4035935534931283</v>
       </c>
       <c r="B97">
         <v>-0.22237738056992543</v>
@@ -5890,7 +5866,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>-1.0679190439169457</v>
+        <v>-1.0703472992482137</v>
       </c>
       <c r="B98">
         <v>-0.77617966078899125</v>
@@ -5949,7 +5925,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>-0.16105848913445717</v>
+        <v>-0.15752850279152195</v>
       </c>
       <c r="B99">
         <v>0.49162293747067454</v>
@@ -6008,7 +5984,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>-0.10275501077601783</v>
+        <v>-0.099921717660621814</v>
       </c>
       <c r="B100">
         <v>0.5983457696217902</v>
@@ -6067,7 +6043,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>-1.3196427522312355</v>
+        <v>-1.3222952241588624</v>
       </c>
       <c r="B101">
         <v>-0.69407123031142426</v>
@@ -6126,7 +6102,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>-1.2631174508022467</v>
+        <v>-1.2658536248048193</v>
       </c>
       <c r="B102">
         <v>-1.4297664399155687</v>
@@ -6185,7 +6161,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.12469888013362455</v>
+        <v>0.12771023626773453</v>
       </c>
       <c r="B103">
         <v>0.60744262998144016</v>
@@ -6244,7 +6220,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.1136112360413384</v>
+        <v>1.1135555515864213</v>
       </c>
       <c r="B104">
         <v>-0.19763900126796216</v>
@@ -6303,7 +6279,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>-1.3951488321516583</v>
+        <v>-1.3979020924533019</v>
       </c>
       <c r="B105">
         <v>-1.8596144012603879</v>
@@ -6362,7 +6338,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>-1.2981529999530665</v>
+        <v>-1.3007061967488063</v>
       </c>
       <c r="B106">
         <v>-0.56216718514760333</v>
@@ -6421,7 +6397,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>1.1313941084714261</v>
+        <v>1.1316757873703998</v>
       </c>
       <c r="B107">
         <v>0.34515416349901173</v>
@@ -6480,7 +6456,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>-0.028610828424334465</v>
+        <v>-0.025351646350162394</v>
       </c>
       <c r="B108">
         <v>-0.053027327072257845</v>
@@ -6539,7 +6515,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>-0.12656337301087048</v>
+        <v>-0.12355027443129554</v>
       </c>
       <c r="B109">
         <v>1.1862244347491897</v>
@@ -6598,7 +6574,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.12287586485637289</v>
+        <v>-0.12013274302227846</v>
       </c>
       <c r="B110">
         <v>1.5351948104239068</v>
@@ -6657,7 +6633,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>-0.34084580454993396</v>
+        <v>-0.33733993910601179</v>
       </c>
       <c r="B111">
         <v>0.71527013116834048</v>
@@ -6716,7 +6692,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>-0.29846732385645797</v>
+        <v>-0.2951636542524298</v>
       </c>
       <c r="B112">
         <v>0.051691765927454808</v>
@@ -6775,7 +6751,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>-0.88899224460454751</v>
+        <v>-0.89286658198540303</v>
       </c>
       <c r="B113">
         <v>-1.0642536814088253</v>
@@ -6834,7 +6810,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>-0.060934074001765294</v>
+        <v>-0.057980116248959483</v>
       </c>
       <c r="B114">
         <v>0.17578187575364329</v>
@@ -6893,7 +6869,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.076098838030043844</v>
+        <v>-0.073414495878970976</v>
       </c>
       <c r="B115">
         <v>-0.015474228892653</v>
@@ -6952,7 +6928,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>-1.5334632143349036</v>
+        <v>-1.5368583479130342</v>
       </c>
       <c r="B116">
         <v>-1.6691126223913459</v>
@@ -7011,7 +6987,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>-1.3155465415788987</v>
+        <v>-1.3182234591506745</v>
       </c>
       <c r="B117">
         <v>-0.56100573519347929</v>
@@ -7070,7 +7046,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>-0.10860879942884055</v>
+        <v>-0.10555789553826482</v>
       </c>
       <c r="B118">
         <v>0.94260440447914928</v>
@@ -7129,7 +7105,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>-1.3369034829947468</v>
+        <v>-1.3402903370820185</v>
       </c>
       <c r="B119">
         <v>-0.99257759643452503</v>
@@ -7188,7 +7164,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>-0.032530056045582852</v>
+        <v>-0.029744301776612674</v>
       </c>
       <c r="B120">
         <v>0.12722375790257812</v>
@@ -7247,7 +7223,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>-1.2193112552244278</v>
+        <v>-1.2219873723791743</v>
       </c>
       <c r="B121">
         <v>-0.93188799182288085</v>
@@ -7306,7 +7282,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>-1.1588825720968139</v>
+        <v>-1.1627600102249949</v>
       </c>
       <c r="B122">
         <v>-1.2867595816422188</v>
@@ -7365,7 +7341,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.42333486007586807</v>
+        <v>0.42554971190492002</v>
       </c>
       <c r="B123">
         <v>0.82648649065490709</v>
@@ -7424,7 +7400,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.13489259616871366</v>
+        <v>-0.13184010416384481</v>
       </c>
       <c r="B124">
         <v>0.96809658282492539</v>
@@ -7483,7 +7459,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.47577903862379789</v>
+        <v>0.47207653618718626</v>
       </c>
       <c r="B125">
         <v>-1.1781588477768909</v>
@@ -7542,7 +7518,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>-1.423659428029344</v>
+        <v>-1.4264942815859258</v>
       </c>
       <c r="B126">
         <v>-0.47659457213591533</v>
@@ -7601,7 +7577,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.30422796533712249</v>
+        <v>-0.30059754867843586</v>
       </c>
       <c r="B127">
         <v>0.81282792440388973</v>
@@ -7660,7 +7636,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.0094146318465998594</v>
+        <v>0.012552496425595146</v>
       </c>
       <c r="B128">
         <v>0.10826492754823426</v>
@@ -7719,7 +7695,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.094719122100510908</v>
+        <v>-0.091285358301567102</v>
       </c>
       <c r="B129">
         <v>-0.17324696342099766</v>
@@ -7778,7 +7754,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.64423416708191417</v>
+        <v>0.64541945770690146</v>
       </c>
       <c r="B130">
         <v>-0.45958058800578055</v>
@@ -7837,7 +7813,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.12540809254628515</v>
+        <v>0.12238394558683709</v>
       </c>
       <c r="B131">
         <v>-0.90086410457045774</v>
@@ -7896,7 +7872,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>-1.2888784309236114</v>
+        <v>-1.2921268266181158</v>
       </c>
       <c r="B132">
         <v>-0.47135919861763276</v>
@@ -7955,7 +7931,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>-0.09215015658421781</v>
+        <v>-0.088923601478386682</v>
       </c>
       <c r="B133">
         <v>0.41864622680462554</v>
@@ -8014,7 +7990,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>-1.3576013823199837</v>
+        <v>-1.3606181195739175</v>
       </c>
       <c r="B134">
         <v>-1.3151003065696014</v>
@@ -8073,7 +8049,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>-0.43172986816001618</v>
+        <v>-0.4294591149250685</v>
       </c>
       <c r="B135">
         <v>0.10845839547472783</v>
@@ -8132,7 +8108,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>-0.23260633976582801</v>
+        <v>-0.22897567203002783</v>
       </c>
       <c r="B136">
         <v>0.67920493881274946</v>
@@ -8191,7 +8167,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>-0.19632414650049901</v>
+        <v>-0.1950121207735652</v>
       </c>
       <c r="B137">
         <v>-0.1694779347861585</v>
@@ -8250,7 +8226,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.71587677911864389</v>
+        <v>0.71601055203695496</v>
       </c>
       <c r="B138">
         <v>-0.1559221627249931</v>
@@ -8309,7 +8285,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>-0.098532436516295258</v>
+        <v>-0.095290921425103717</v>
       </c>
       <c r="B139">
         <v>-0.11529688376825156</v>
@@ -8368,7 +8344,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>-0.2622176233509641</v>
+        <v>-0.25873291726672604</v>
       </c>
       <c r="B140">
         <v>0.25492898470067249</v>
@@ -8427,7 +8403,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.88700945053498281</v>
+        <v>-0.89095890544641043</v>
       </c>
       <c r="B141">
         <v>-1.1583747295172591</v>
@@ -8486,7 +8462,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>-1.4770616542448247</v>
+        <v>-1.4798633750864618</v>
       </c>
       <c r="B142">
         <v>-1.5318417025886419</v>
@@ -8545,7 +8521,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>-1.5247979958499078</v>
+        <v>-1.5279276093418201</v>
       </c>
       <c r="B143">
         <v>-0.5244790285374179</v>
@@ -8604,7 +8580,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>-1.4611960128100627</v>
+        <v>-1.464548864835755</v>
       </c>
       <c r="B144">
         <v>-1.5339425330717218</v>
@@ -8663,7 +8639,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>-1.4022108924942021</v>
+        <v>-1.4051929016118818</v>
       </c>
       <c r="B145">
         <v>-0.44548417903412846</v>
@@ -8722,7 +8698,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.16859887936680212</v>
+        <v>-0.16529933447761661</v>
       </c>
       <c r="B146">
         <v>0.77624624031055689</v>
@@ -8781,7 +8757,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.0059598300872794356</v>
+        <v>-0.0029943967024094039</v>
       </c>
       <c r="B147">
         <v>0.30581984727406036</v>
@@ -8840,7 +8816,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>-0.10713926328707161</v>
+        <v>-0.10385107475005187</v>
       </c>
       <c r="B148">
         <v>-0.14521387901251057</v>
@@ -8899,7 +8875,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.35804301248609333</v>
+        <v>0.36021842369354728</v>
       </c>
       <c r="B149">
         <v>0.41129848280809039</v>
@@ -8958,7 +8934,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.97698970743899005</v>
+        <v>0.97765968507478274</v>
       </c>
       <c r="B150">
         <v>0.48991116220137582</v>
@@ -9017,7 +8993,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.22838800188489883</v>
+        <v>-0.22491605937569883</v>
       </c>
       <c r="B151">
         <v>0.67644363464216029</v>
@@ -9076,7 +9052,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>-1.3923918810359941</v>
+        <v>-1.3954490589836546</v>
       </c>
       <c r="B152">
         <v>-0.58025459533820123</v>
@@ -9135,7 +9111,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.8393457928065432</v>
+        <v>-0.84298783348181472</v>
       </c>
       <c r="B153">
         <v>-1.0758508302413734</v>
@@ -9194,7 +9170,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.039907440690332557</v>
+        <v>0.042738034179134091</v>
       </c>
       <c r="B154">
         <v>-0.19546506847638226</v>
@@ -9253,7 +9229,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.013196105369549706</v>
+        <v>0.0093451033135245245</v>
       </c>
       <c r="B155">
         <v>-0.65897111190012847</v>
@@ -9312,7 +9288,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>-1.4016826798649531</v>
+        <v>-1.4052257175224936</v>
       </c>
       <c r="B156">
         <v>-0.35899390576031587</v>
@@ -9371,7 +9347,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>-0.20738578196716992</v>
+        <v>-0.20388671417950688</v>
       </c>
       <c r="B157">
         <v>0.46016796309107744</v>
@@ -9430,7 +9406,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.077920586680639503</v>
+        <v>0.080137142210449236</v>
       </c>
       <c r="B158">
         <v>0.31710430777531168</v>
@@ -9489,7 +9465,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>-1.568843695082377</v>
+        <v>-1.5722514846133497</v>
       </c>
       <c r="B159">
         <v>-0.53198074814128249</v>
@@ -9548,7 +9524,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>-0.072526404256040275</v>
+        <v>-0.069374779511185314</v>
       </c>
       <c r="B160">
         <v>0.48730524329964175</v>
@@ -9607,7 +9583,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>-0.15864683416328862</v>
+        <v>-0.15522835123397699</v>
       </c>
       <c r="B161">
         <v>0.39062738215810133</v>
@@ -9666,7 +9642,7 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>-1.0781899167409603</v>
+        <v>-1.0822641171733571</v>
       </c>
       <c r="B162">
         <v>-0.29100111114921295</v>
@@ -9725,7 +9701,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.086243537165724693</v>
+        <v>0.089176235544159543</v>
       </c>
       <c r="B163">
         <v>0.13534420791522483</v>
@@ -9784,7 +9760,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>1.4226671108447417</v>
+        <v>1.4198131584759563</v>
       </c>
       <c r="B164">
         <v>-0.21451110812861804</v>
@@ -9843,7 +9819,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>-1.4120473482520841</v>
+        <v>-1.4154156617809814</v>
       </c>
       <c r="B165">
         <v>-0.83879897598086339</v>
@@ -9902,7 +9878,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>-1.3338149074048231</v>
+        <v>-1.3374649124886484</v>
       </c>
       <c r="B166">
         <v>-1.1764351397752761</v>
@@ -9961,7 +9937,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.34144831233328488</v>
+        <v>0.33964475383671661</v>
       </c>
       <c r="B167">
         <v>-0.27311112871685023</v>
@@ -10020,7 +9996,7 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.13766707512671797</v>
+        <v>0.14050082586527166</v>
       </c>
       <c r="B168">
         <v>0.05661016299656161</v>
@@ -10079,7 +10055,7 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.28099434250408389</v>
+        <v>0.27722968104775048</v>
       </c>
       <c r="B169">
         <v>-0.73108330704796487</v>
@@ -10138,7 +10114,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>1.1539183395349741</v>
+        <v>1.1544921703524043</v>
       </c>
       <c r="B170">
         <v>0.45398790275148959</v>
@@ -10197,7 +10173,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>-1.492434876075637</v>
+        <v>-1.4958207108346198</v>
       </c>
       <c r="B171">
         <v>-0.59897569095866277</v>
@@ -10256,7 +10232,7 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.22812508358717204</v>
+        <v>0.23059243178168559</v>
       </c>
       <c r="B172">
         <v>-0.048376300007293413</v>
@@ -10315,7 +10291,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>-0.18690588635056118</v>
+        <v>-0.1835712133278164</v>
       </c>
       <c r="B173">
         <v>0.61973824607792183</v>
@@ -10374,7 +10350,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>-0.12980828053490173</v>
+        <v>-0.12667499837293228</v>
       </c>
       <c r="B174">
         <v>0.60712596661639662</v>
@@ -10433,7 +10409,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>-1.4291581692870701</v>
+        <v>-1.4325097770765061</v>
       </c>
       <c r="B175">
         <v>-0.63917635032572806</v>
@@ -10492,7 +10468,7 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.49976663355979362</v>
+        <v>0.50159758298442236</v>
       </c>
       <c r="B176">
         <v>-0.23535239440276173</v>
@@ -10551,7 +10527,7 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>-1.3550431980429707</v>
+        <v>-1.3586063408772946</v>
       </c>
       <c r="B177">
         <v>-0.79798350739517399</v>
@@ -10610,7 +10586,7 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>2.5424851576501877</v>
+        <v>2.5397250271058036</v>
       </c>
       <c r="B178">
         <v>0.33227654144295726</v>
@@ -10669,7 +10645,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>-0.32949634728423211</v>
+        <v>-0.33344470827856681</v>
       </c>
       <c r="B179">
         <v>-0.72179242936115062</v>
@@ -10728,7 +10704,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.2861277244028782</v>
+        <v>0.28829597877473645</v>
       </c>
       <c r="B180">
         <v>0.514470888678629</v>
@@ -10787,7 +10763,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.79800656184161256</v>
+        <v>0.79855031159641454</v>
       </c>
       <c r="B181">
         <v>0.36109736102729101</v>
@@ -10846,7 +10822,7 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>1.7150241471807077</v>
+        <v>1.711118649220237</v>
       </c>
       <c r="B182">
         <v>-0.47497096820226709</v>
@@ -10905,7 +10881,7 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.058748476935580066</v>
+        <v>-0.05563593918300485</v>
       </c>
       <c r="B183">
         <v>0.32085904724858133</v>
@@ -10964,7 +10940,7 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.53318910116241836</v>
+        <v>0.5350194739286277</v>
       </c>
       <c r="B184">
         <v>0.15386726971579062</v>
@@ -11023,7 +10999,7 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>-1.3644731835146722</v>
+        <v>-1.3682579243920179</v>
       </c>
       <c r="B185">
         <v>-0.13864028026620226</v>
@@ -11082,7 +11058,7 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.098536199888119</v>
+        <v>0.10129307598225244</v>
       </c>
       <c r="B186">
         <v>0.21948156023726745</v>
@@ -11141,7 +11117,7 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.10656631926038604</v>
+        <v>0.1089722964767931</v>
       </c>
       <c r="B187">
         <v>0.35653169433719839</v>
@@ -11200,7 +11176,7 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.0165644994959744</v>
+        <v>1.017183069576971</v>
       </c>
       <c r="B188">
         <v>0.1216985324622636</v>
@@ -11259,7 +11235,7 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>-1.5045589367004908</v>
+        <v>-1.5082982598518717</v>
       </c>
       <c r="B189">
         <v>-0.39999099802735366</v>
@@ -11318,7 +11294,7 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>-1.0626774014429026</v>
+        <v>-1.0663992890595024</v>
       </c>
       <c r="B190">
         <v>-0.55612448291791661</v>
@@ -11377,7 +11353,7 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.47021041402544062</v>
+        <v>0.47223339862665376</v>
       </c>
       <c r="B191">
         <v>0.065047384073770129</v>
@@ -11436,7 +11412,7 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>-1.3436126695460586</v>
+        <v>-1.3470574916606728</v>
       </c>
       <c r="B192">
         <v>-0.6358170894554156</v>
@@ -11495,7 +11471,7 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>-0.35369032111863197</v>
+        <v>-0.35700124910834952</v>
       </c>
       <c r="B193">
         <v>-0.19013941867131715</v>
@@ -11554,7 +11530,7 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>2.3962434905596472</v>
+        <v>2.3937905687008327</v>
       </c>
       <c r="B194">
         <v>0.62286599857125347</v>
@@ -11613,7 +11589,7 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>1.2623983169985189</v>
+        <v>1.2585201757902189</v>
       </c>
       <c r="B195">
         <v>-0.19870453396499685</v>
@@ -11672,7 +11648,7 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.9091554381457154</v>
+        <v>1.9070465407505961</v>
       </c>
       <c r="B196">
         <v>0.26159857622661065</v>
@@ -11731,7 +11707,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.67074084521475841</v>
+        <v>0.67196368680937635</v>
       </c>
       <c r="B197">
         <v>0.15954610431819397</v>
@@ -11790,7 +11766,7 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>-1.4013468389366899</v>
+        <v>-1.4049185120898813</v>
       </c>
       <c r="B198">
         <v>-0.70070035979151724</v>
@@ -11849,7 +11825,7 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.37203426466766748</v>
+        <v>0.37431208060981735</v>
       </c>
       <c r="B199">
         <v>0.50363357723039959</v>
@@ -11908,7 +11884,7 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>1.3141871039141524</v>
+        <v>1.3140109096489436</v>
       </c>
       <c r="B200">
         <v>0.15573143501214326</v>
@@ -11967,7 +11943,7 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>2.1340057490215973</v>
+        <v>2.130563319837727</v>
       </c>
       <c r="B201">
         <v>0.57327108460393816</v>
@@ -12026,7 +12002,7 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.4852683568198482</v>
+        <v>0.4873779665646879</v>
       </c>
       <c r="B202">
         <v>0.27638469776828534</v>
@@ -12085,7 +12061,7 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>-1.1175809077322008</v>
+        <v>-1.1212396020971955</v>
       </c>
       <c r="B203">
         <v>-0.35187970445706296</v>
@@ -12144,7 +12120,7 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.47141459777845912</v>
+        <v>0.46776543817477501</v>
       </c>
       <c r="B204">
         <v>-0.11465365846935824</v>
@@ -12203,7 +12179,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>-1.4754811581494363</v>
+        <v>-1.4792759489525182</v>
       </c>
       <c r="B205">
         <v>-0.58316899859346449</v>
@@ -12262,7 +12238,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.4799808001072965</v>
+        <v>1.4791373062554836</v>
       </c>
       <c r="B206">
         <v>0.83965180275609363</v>
@@ -12321,7 +12297,7 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.68956918277175894</v>
+        <v>0.69077805098552647</v>
       </c>
       <c r="B207">
         <v>0.34736253985616028</v>
@@ -12380,7 +12356,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.45144303836229593</v>
+        <v>0.45329017382032505</v>
       </c>
       <c r="B208">
         <v>0.298079297879424</v>
@@ -12439,7 +12415,7 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>1.8902859517806163</v>
+        <v>1.8867430771712634</v>
       </c>
       <c r="B209">
         <v>0.13405963031037355</v>
@@ -12498,7 +12474,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>1.1578609416047683</v>
+        <v>1.1580724599951209</v>
       </c>
       <c r="B210">
         <v>0.23126975723797863</v>
@@ -12557,7 +12533,7 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>-0.39082604069244614</v>
+        <v>-0.39470996296489119</v>
       </c>
       <c r="B211">
         <v>-0.20154541792118386</v>
@@ -12616,7 +12592,7 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>2.2219839282070555</v>
+        <v>2.2198298854347573</v>
       </c>
       <c r="B212">
         <v>0.70442529893101724</v>
@@ -12675,7 +12651,7 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>-1.1037163833540191</v>
+        <v>-1.1074243392632184</v>
       </c>
       <c r="B213">
         <v>-0.12957327004321534</v>
@@ -12734,7 +12710,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.93305203307412476</v>
+        <v>0.93400301326711588</v>
       </c>
       <c r="B214">
         <v>0.14651363527167868</v>
@@ -12793,7 +12769,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>-1.1772736608442766</v>
+        <v>-1.1808615667282576</v>
       </c>
       <c r="B215">
         <v>-0.47274099812595122</v>
@@ -12852,7 +12828,7 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>-0.11211492909118846</v>
+        <v>-0.11600865455541519</v>
       </c>
       <c r="B216">
         <v>-0.12270495376816166</v>
@@ -12911,7 +12887,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>-1.2655922851832062</v>
+        <v>-1.2691436011740371</v>
       </c>
       <c r="B217">
         <v>-0.48233726802339527</v>
@@ -12970,7 +12946,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.8157444082085676</v>
+        <v>1.8143045977089043</v>
       </c>
       <c r="B218">
         <v>0.4683625031471646</v>
@@ -13029,7 +13005,7 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>1.4690193150825612</v>
+        <v>1.4655267980140607</v>
       </c>
       <c r="B219">
         <v>0.46512912997048883</v>
@@ -13088,7 +13064,7 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>2.1689432571215841</v>
+        <v>2.1662242991559881</v>
       </c>
       <c r="B220">
         <v>0.70368550800746499</v>
@@ -13147,7 +13123,7 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>2.3369233105549601</v>
+        <v>2.3336979351774776</v>
       </c>
       <c r="B221">
         <v>0.80797310544123579</v>
@@ -13206,7 +13182,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>1.514629865307443</v>
+        <v>1.5137244869452564</v>
       </c>
       <c r="B222">
         <v>0.89300681827342621</v>
@@ -13265,7 +13241,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>1.1586844715681894</v>
+        <v>1.158707800449911</v>
       </c>
       <c r="B223">
         <v>0.66419576836399064</v>
@@ -13324,7 +13300,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>1.1976714524038079</v>
+        <v>1.197676939527256</v>
       </c>
       <c r="B224">
         <v>0.50243383681611398</v>
@@ -13383,7 +13359,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>-0.93728495517645238</v>
+        <v>-0.94093983632393197</v>
       </c>
       <c r="B225">
         <v>-0.33090796752135881</v>
@@ -13442,7 +13418,7 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>1.9219645159650325</v>
+        <v>1.9203618244411149</v>
       </c>
       <c r="B226">
         <v>0.58845259362527169</v>
@@ -13501,7 +13477,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.0026008860230736543</v>
+        <v>-0.0013905300612218918</v>
       </c>
       <c r="B227">
         <v>-0.34376440932362162</v>
@@ -13560,7 +13536,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.2272969586638971</v>
+        <v>1.2235170665174437</v>
       </c>
       <c r="B228">
         <v>0.074379637071350854</v>
@@ -13619,7 +13595,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>-0.59693319820082513</v>
+        <v>-0.60073925627542979</v>
       </c>
       <c r="B229">
         <v>-0.5394418556529742</v>
@@ -13678,7 +13654,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>2.2003635314384256</v>
+        <v>2.1978009310821141</v>
       </c>
       <c r="B230">
         <v>1.0026234359780619</v>
@@ -13737,7 +13713,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>-0.30412007425775983</v>
+        <v>-0.3080113893858103</v>
       </c>
       <c r="B231">
         <v>-0.15797008169032237</v>
@@ -13796,7 +13772,7 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>1.8240638720057005</v>
+        <v>1.8227425276126374</v>
       </c>
       <c r="B232">
         <v>0.79009384294981155</v>
@@ -13855,7 +13831,7 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>1.5021621615675405</v>
+        <v>1.5013249218630169</v>
       </c>
       <c r="B233">
         <v>1.0412693682527807</v>
@@ -13914,7 +13890,7 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>-0.43139732328858893</v>
+        <v>-0.4352782956479066</v>
       </c>
       <c r="B234">
         <v>-0.41807319011377253</v>
@@ -13973,7 +13949,7 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>1.1866763116821883</v>
+        <v>1.1826328018213281</v>
       </c>
       <c r="B235">
         <v>0.5023126940105328</v>
@@ -14032,7 +14008,7 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>2.2076546482019417</v>
+        <v>2.204865573091201</v>
       </c>
       <c r="B236">
         <v>0.91940382643497709</v>
@@ -14091,7 +14067,7 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>2.1636283181604954</v>
+        <v>2.161048285202789</v>
       </c>
       <c r="B237">
         <v>1.2527158251374859</v>
@@ -14150,7 +14126,7 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>-0.25714074264215386</v>
+        <v>-0.26090014396705996</v>
       </c>
       <c r="B238">
         <v>-0.16502217229107091</v>
@@ -14209,7 +14185,7 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>2.0501924267926759</v>
+        <v>2.0470043989811701</v>
       </c>
       <c r="B239">
         <v>1.1705311586991933</v>
@@ -14268,7 +14244,7 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>1.7527249073682791</v>
+        <v>1.7513597612434557</v>
       </c>
       <c r="B240">
         <v>1.1086551003851171</v>
@@ -14327,7 +14303,7 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>1.7925905364661014</v>
+        <v>1.7886634784481934</v>
       </c>
       <c r="B241">
         <v>0.21425486384890974</v>
@@ -14386,7 +14362,7 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.78051384961324743</v>
+        <v>0.77642241823543479</v>
       </c>
       <c r="B242">
         <v>-0.17472204930820737</v>
@@ -14445,7 +14421,7 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>2.0535740271826746</v>
+        <v>2.0512214721163891</v>
       </c>
       <c r="B243">
         <v>1.0444313519973818</v>
@@ -14504,7 +14480,7 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>2.4048481465457332</v>
+        <v>2.4009641003235425</v>
       </c>
       <c r="B244">
         <v>1.4821606995662053</v>
@@ -14563,7 +14539,7 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>2.1206691035141731</v>
+        <v>2.1181691299180576</v>
       </c>
       <c r="B245">
         <v>1.3543919464258047</v>
@@ -14622,7 +14598,7 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.60197749658926658</v>
+        <v>0.5977415361338948</v>
       </c>
       <c r="B246">
         <v>-0.25239614225161877</v>
@@ -14681,7 +14657,7 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>1.4814752654399208</v>
+        <v>1.4774652149191101</v>
       </c>
       <c r="B247">
         <v>0.47795085583477731</v>
@@ -14740,7 +14716,7 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>2.3032157241178348</v>
+        <v>2.2994100378933284</v>
       </c>
       <c r="B248">
         <v>0.55830241344232534</v>
@@ -14799,7 +14775,7 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>2.325250137088863</v>
+        <v>2.3218960207779626</v>
       </c>
       <c r="B249">
         <v>1.2510564070354941</v>
@@ -14858,7 +14834,7 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>2.3044243743384207</v>
+        <v>2.3001305924207687</v>
       </c>
       <c r="B250">
         <v>1.3506701257797555</v>
@@ -14917,7 +14893,7 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>2.1261308798113117</v>
+        <v>2.1217301292000164</v>
       </c>
       <c r="B251">
         <v>0.42276443596826158</v>
